--- a/biology/Botanique/Panicum/Panicum.xlsx
+++ b/biology/Botanique/Panicum/Panicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum
-Panicum (les panics ou panis en français[1]) est un genre de plantes monocotylédones de la famille des Poacées, sous-famille des Panicoideae. Ce genre regroupe environ 370 espèces des régions tempérées, tropicales ou subtropicales.
+Panicum (les panics ou panis en français) est un genre de plantes monocotylédones de la famille des Poacées, sous-famille des Panicoideae. Ce genre regroupe environ 370 espèces des régions tempérées, tropicales ou subtropicales.
 Ce sont des plantes herbacées ou ligneuses, annuelles ou vivaces, rhizomateuses, stolonifères ou cespiteuses, aux tiges dressées ou décombantes, pouvant atteindre de 20 à 400 cm de haut.
 Certaines espèces sont cultivées comme céréales ou comme plantes fourragères. De nombreuses autres sont  des mauvaises herbes des cultures, notamment de maïs.
 Le genre Panicum compte un certain nombre d'espèces adventices ainsi que des espèces qui sont cultivées comme plantes fourragères, céréalières ou ornementales.
-Le panic érigé (Panicum virgatum), adventice courante aux États-Unis, parfois utilisée comme fourrage ou en couverture de sols fragiles à protéger contre l'érosion, pourrait constituer, selon une étude[2] publiée en 2008, une source intéressante d'agrocarburants, grâce à un bilan écologique et énergétique[3] bien meilleur que celui du maïs, selon Hen Vogel et ses associés (il produit 540 % d'énergie par rapport à l'énergie fournie pour le produire).
-Le panic d'automne (Panicum dichotomiflorum (en)) fait partie de la végétation adventice des sols légers neutres à acides (Panico-Setarion)[4].
+Le panic érigé (Panicum virgatum), adventice courante aux États-Unis, parfois utilisée comme fourrage ou en couverture de sols fragiles à protéger contre l'érosion, pourrait constituer, selon une étude publiée en 2008, une source intéressante d'agrocarburants, grâce à un bilan écologique et énergétique bien meilleur que celui du maïs, selon Hen Vogel et ses associés (il produit 540 % d'énergie par rapport à l'énergie fournie pour le produire).
+Le panic d'automne (Panicum dichotomiflorum (en)) fait partie de la végétation adventice des sols légers neutres à acides (Panico-Setarion).
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 septembre 2016)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 septembre 2016) :
 Panicum abscissum Swallen
 Panicum aciculare Desv.
 Panicum acicularifolium Renvoize &amp; Zuloaga
@@ -1014,7 +1028,9 @@
           <t>Autres graminées portant le nom de « panic »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces appartenant aux genres voisins Echinochloa et Setaria de la famille des Poacées portent le nom vernaculaire de « panic » ou panis, notamment :
 Echinochloa crus-galli (L.) P.Beauv., le panic pied-de-coq
@@ -1050,9 +1066,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain français, le 11e jour du mois de Thermidor est dénommé jour du Panic[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain français, le 11e jour du mois de Thermidor est dénommé jour du Panic.
 </t>
         </is>
       </c>
